--- a/out_data/member_day_total.xlsx
+++ b/out_data/member_day_total.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucaalbertini/Desktop/google_case_study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucaalbertini/Personal/CaseStudies/Python-GoogleMilestoneProject/out_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21F4E88-24FC-FE44-997B-6EA9BBF7F745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C6029F-6BF6-EC40-83DF-168FA67ACCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="member_day_total" sheetId="1" r:id="rId1"/>
@@ -300,54 +300,7 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -403,7 +356,54 @@
       <numFmt numFmtId="4" formatCode="#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -652,17 +652,32 @@
     <dataField name="Sum of n_trips" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="16">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <conditionalFormats count="4">
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="5">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
             <reference field="4294967294" count="1" selected="0">
-              <x v="3"/>
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="2">
+              <x v="0"/>
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="4">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="2"/>
             </reference>
             <reference field="0" count="2">
               <x v="0"/>
@@ -687,27 +702,12 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="4">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
             <reference field="4294967294" count="1" selected="0">
-              <x v="2"/>
-            </reference>
-            <reference field="0" count="2">
-              <x v="0"/>
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="5">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
+              <x v="3"/>
             </reference>
             <reference field="0" count="2">
               <x v="0"/>
@@ -806,17 +806,37 @@
     <dataField name="Sum of n_trips" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="15">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
   <conditionalFormats count="4">
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="5">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
             <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="7">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
               <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="4">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
             </reference>
             <reference field="1" count="7">
               <x v="0"/>
@@ -851,32 +871,12 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="4">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="2">
             <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-            <reference field="1" count="7">
-              <x v="0"/>
-              <x v="1"/>
-              <x v="2"/>
               <x v="3"/>
-              <x v="4"/>
-              <x v="5"/>
-              <x v="6"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat priority="5">
-      <pivotAreas count="1">
-        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
             </reference>
             <reference field="1" count="7">
               <x v="0"/>
@@ -1104,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1506,19 +1506,19 @@
     <sortCondition ref="B2:B32"/>
   </sortState>
   <conditionalFormatting sqref="C2:C15">
-    <cfRule type="top10" dxfId="14" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D15">
-    <cfRule type="top10" dxfId="13" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E15">
-    <cfRule type="top10" dxfId="12" priority="3" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="3" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F15">
-    <cfRule type="top10" dxfId="11" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G15">
-    <cfRule type="top10" dxfId="10" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1531,8 +1531,8 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1635,19 +1635,19 @@
     </row>
   </sheetData>
   <conditionalFormatting pivot="1" sqref="B2:B3">
-    <cfRule type="top10" dxfId="9" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="D2:D3">
-    <cfRule type="top10" dxfId="8" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="15" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3">
-    <cfRule type="top10" dxfId="7" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="C2:C3">
-    <cfRule type="top10" dxfId="6" priority="2" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="13" priority="2" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="E2:E3">
-    <cfRule type="top10" dxfId="5" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1861,19 +1861,19 @@
     </row>
   </sheetData>
   <conditionalFormatting pivot="1" sqref="B2:B8">
-    <cfRule type="top10" dxfId="4" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="C2:C8">
-    <cfRule type="top10" dxfId="3" priority="4" bottom="1" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="4" bottom="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="D2:D8">
-    <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F8">
-    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="7" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting pivot="1" sqref="E2:E8">
-    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
